--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1008.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1008.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177989690350929</v>
+        <v>1.347193598747253</v>
       </c>
       <c r="B1">
-        <v>2.687758556836422</v>
+        <v>1.725699663162231</v>
       </c>
       <c r="C1">
-        <v>4.301472463131149</v>
+        <v>2.482172250747681</v>
       </c>
       <c r="D1">
-        <v>2.348579708466155</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.035115122728293</v>
+        <v>1.208254337310791</v>
       </c>
     </row>
   </sheetData>
